--- a/ResultadoEleicoesDistritos/VILA REAL_SANTA MARTA DE PENAGUIÃO.xlsx
+++ b/ResultadoEleicoesDistritos/VILA REAL_SANTA MARTA DE PENAGUIÃO.xlsx
@@ -597,64 +597,64 @@
         <v>2092</v>
       </c>
       <c r="H2" t="n">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="I2" t="n">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="J2" t="n">
-        <v>848</v>
+        <v>884</v>
       </c>
       <c r="K2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>242</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17</v>
+      </c>
+      <c r="N2" t="n">
+        <v>139</v>
+      </c>
+      <c r="O2" t="n">
         <v>2</v>
       </c>
-      <c r="L2" t="n">
-        <v>227</v>
-      </c>
-      <c r="M2" t="n">
-        <v>13</v>
-      </c>
-      <c r="N2" t="n">
-        <v>150</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="S2" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="T2" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="U2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V2" t="n">
-        <v>1356</v>
+        <v>1333</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AA2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
